--- a/Data/Sampling_input_maths2.xlsx
+++ b/Data/Sampling_input_maths2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">sim_order</t>
   </si>
@@ -158,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,31 +246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f aca="false">"+ model uncertainty"</f>
-        <v>+ model uncertainty</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
